--- a/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_0-0_test_set_dropdown_and_ruleexamplerow.xlsx
+++ b/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_0-0_test_set_dropdown_and_ruleexamplerow.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="340" yWindow="2990" windowWidth="10800" windowHeight="7810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>

--- a/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_0-0_test_set_dropdown_and_ruleexamplerow.xlsx
+++ b/tests/for_fuker.allprocess_xls/saving_all_modes_test/allprocess_xls_0-0_test_set_dropdown_and_ruleexamplerow.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="2520" windowWidth="14400" windowHeight="6460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
